--- a/sputnik/personal/cel/cel46.xlsx
+++ b/sputnik/personal/cel/cel46.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -519,7 +519,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -631,9 +631,15 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="A10" s="12">
+        <v>43952</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1000</v>
+      </c>
       <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/cel/cel46.xlsx
+++ b/sputnik/personal/cel/cel46.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -519,7 +519,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -643,10 +643,16 @@
       <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="12">
+        <v>44110</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="D11" s="11">
+        <v>500</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>

--- a/sputnik/personal/cel/cel46.xlsx
+++ b/sputnik/personal/cel/cel46.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -519,7 +519,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -655,10 +655,16 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="12">
+        <v>44144</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="D12" s="11">
+        <v>500</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>

--- a/sputnik/personal/cel/cel46.xlsx
+++ b/sputnik/personal/cel/cel46.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Оплачен целевой взнос на ремонт общей подъездной дороги</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -516,10 +522,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -667,10 +673,58 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="A13" s="12">
+        <v>44317</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1000</v>
+      </c>
       <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>44317</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1619</v>
+      </c>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel46.xlsx
+++ b/sputnik/personal/cel/cel46.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Оплачено</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -177,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -207,7 +213,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -525,7 +530,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:C14"/>
+      <selection activeCell="A15" sqref="A15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -553,7 +558,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>43466</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -565,7 +570,7 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>43466</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -577,7 +582,7 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>43586</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -589,7 +594,7 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>43586</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -601,7 +606,7 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>43618</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -613,7 +618,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <v>43618</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -625,14 +630,14 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>43683</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>431</v>
       </c>
     </row>
@@ -643,7 +648,7 @@
       <c r="B10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="13">
         <v>1000</v>
       </c>
       <c r="D10" s="13"/>
@@ -655,8 +660,8 @@
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13">
         <v>500</v>
       </c>
     </row>
@@ -667,8 +672,8 @@
       <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13">
         <v>500</v>
       </c>
     </row>
@@ -679,10 +684,10 @@
       <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="13">
         <v>1000</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
@@ -691,40 +696,52 @@
       <c r="B14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="13">
         <v>1619</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="12">
+        <v>44411</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13">
+        <v>1000</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="12">
+        <v>44411</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13">
+        <v>1619</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
